--- a/eos26_motherboard_basic/Project Outputs for eos26_motherboard_basic/eos26_motherboard_basic_BOM_v1.xlsx
+++ b/eos26_motherboard_basic/Project Outputs for eos26_motherboard_basic/eos26_motherboard_basic_BOM_v1.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Altium-Public\eos26_motherboard_basic\Project Outputs for eos26_motherboard_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8639A60C-AFB6-4EB6-B83E-CDDF6C733393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B261AD3-D48D-4F88-8E5B-1FFAB6A95EDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eos26_motherboard_basic_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
   <si>
     <t>Quantity</t>
   </si>
@@ -317,9 +328,6 @@
   </si>
   <si>
     <t>Samtec</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>36-5001-ND</t>
@@ -337,7 +345,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1197,11 +1205,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,10 +1861,10 @@
         <v>64</v>
       </c>
       <c r="J22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>59</v>
@@ -1889,10 +1897,10 @@
         <v>64</v>
       </c>
       <c r="J23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>59</v>
@@ -1995,11 +2003,6 @@
       </c>
     </row>
     <row r="31" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
